--- a/01_consulta/consulta.xlsx
+++ b/01_consulta/consulta.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ffd5046c530c3e9/Documentos/consulta_cnpj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikaelfideles\Documents\RG1NOT0340\myprojects\github\consulta_cnpj\01_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1FB5EE1F-A6DA-4F0C-B2F6-9F6E1AFA591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E711F66D-0EA9-4D3D-8220-F96977CB1C07}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281BD261-3D5F-43C6-99B0-36DB6E07A34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCCB3180-6F38-42DB-A297-4123D073B6A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BCCB3180-6F38-42DB-A297-4123D073B6A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="consulta" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NUM_CNPJ</t>
   </si>
@@ -46,34 +46,49 @@
   </si>
   <si>
     <t>60746948000112</t>
+  </si>
+  <si>
+    <t>00000000000191</t>
+  </si>
+  <si>
+    <t>00360305000104</t>
+  </si>
+  <si>
+    <t>05775816000100</t>
+  </si>
+  <si>
+    <t>00070112000542</t>
+  </si>
+  <si>
+    <t>00089189000130</t>
+  </si>
+  <si>
+    <t>00097225000108</t>
+  </si>
+  <si>
+    <t>00099708000575</t>
+  </si>
+  <si>
+    <t>00146461000258</t>
+  </si>
+  <si>
+    <t>00147913000135</t>
+  </si>
+  <si>
+    <t>00154642000145</t>
+  </si>
+  <si>
+    <t>00154642000226</t>
+  </si>
+  <si>
+    <t>00193082000138</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,23 +101,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -110,141 +120,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{501D3022-1A07-44B8-909C-80F6A7150EF4}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -255,16 +143,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E06CF417-76F2-46E9-BEB3-31AE24759724}" name="Tabela1" displayName="Tabela1" ref="A1:A4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A4" xr:uid="{5F287D84-3D12-40F9-94C8-F7C28EA0F3F9}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9484D0C8-8A82-47C7-BE46-1E5721F4AF10}" name="NUM_CNPJ" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,42 +441,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E097A199-7DA9-4F7E-87F7-A80599721ED2}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C922FE1-A9BE-4B14-94F4-2406A529F474}">
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/01_consulta/consulta.xlsx
+++ b/01_consulta/consulta.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikaelfideles\Documents\RG1NOT0340\myprojects\github\consulta_cnpj\01_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281BD261-3D5F-43C6-99B0-36DB6E07A34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1155D68-4199-42C2-89F4-1CDC359C79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BCCB3180-6F38-42DB-A297-4123D073B6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="consulta" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">consulta!$A$1:$A$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NUM_CNPJ</t>
   </si>
   <si>
-    <t>33657248000189</t>
-  </si>
-  <si>
     <t>90400888000142</t>
   </si>
   <si>
@@ -51,37 +51,10 @@
     <t>00000000000191</t>
   </si>
   <si>
-    <t>00360305000104</t>
-  </si>
-  <si>
-    <t>05775816000100</t>
-  </si>
-  <si>
-    <t>00070112000542</t>
-  </si>
-  <si>
-    <t>00089189000130</t>
-  </si>
-  <si>
-    <t>00097225000108</t>
-  </si>
-  <si>
-    <t>00099708000575</t>
-  </si>
-  <si>
-    <t>00146461000258</t>
-  </si>
-  <si>
-    <t>00147913000135</t>
-  </si>
-  <si>
-    <t>00154642000145</t>
-  </si>
-  <si>
-    <t>00154642000226</t>
-  </si>
-  <si>
-    <t>00193082000138</t>
+    <t>60701190000104</t>
+  </si>
+  <si>
+    <t>00038166000873</t>
   </si>
 </sst>
 </file>
@@ -125,8 +98,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,15 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C922FE1-A9BE-4B14-94F4-2406A529F474}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -459,81 +431,32 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_consulta/consulta.xlsx
+++ b/01_consulta/consulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikaelfideles\Documents\RG1NOT0340\myprojects\github\consulta_cnpj\01_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1155D68-4199-42C2-89F4-1CDC359C79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9A6509-BD3C-427E-9127-4E4C12DA0D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BCCB3180-6F38-42DB-A297-4123D073B6A0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="consulta" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">consulta!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">consulta!$A$1:$A$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NUM_CNPJ</t>
   </si>
@@ -45,16 +45,7 @@
     <t>90400888000142</t>
   </si>
   <si>
-    <t>60746948000112</t>
-  </si>
-  <si>
-    <t>00000000000191</t>
-  </si>
-  <si>
-    <t>60701190000104</t>
-  </si>
-  <si>
-    <t>00038166000873</t>
+    <t>33657248000189</t>
   </si>
 </sst>
 </file>
@@ -416,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C922FE1-A9BE-4B14-94F4-2406A529F474}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,26 +423,11 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/01_consulta/consulta.xlsx
+++ b/01_consulta/consulta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikaelfideles\Documents\RG1NOT0340\myprojects\github\consulta_cnpj\01_consulta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikaelfideles\Documents\RG1NOT0340\myprojects\consulta_cnpj\01_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9A6509-BD3C-427E-9127-4E4C12DA0D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11DF1C9-E73F-45FD-B691-CC3F572D762A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BCCB3180-6F38-42DB-A297-4123D073B6A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BCCB3180-6F38-42DB-A297-4123D073B6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="consulta" sheetId="2" r:id="rId1"/>
@@ -37,15 +37,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NUM_CNPJ</t>
   </si>
   <si>
-    <t>90400888000142</t>
+    <t>33657248000189</t>
   </si>
   <si>
-    <t>33657248000189</t>
+    <t>60746948000112</t>
+  </si>
+  <si>
+    <t>00000000000191</t>
+  </si>
+  <si>
+    <t>90400888000000</t>
   </si>
 </sst>
 </file>
@@ -407,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C922FE1-A9BE-4B14-94F4-2406A529F474}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -423,12 +431,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
